--- a/estudoNN.xlsx
+++ b/estudoNN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\btiag\Desktop\Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\João Mota\Desktop\TP_CR_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661870A5-89EF-442B-93EB-117E49632033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E84537-5A62-4EEE-B337-9C2462A9BB6E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="84">
   <si>
     <t>Função de treino</t>
   </si>
@@ -127,6 +127,159 @@
   </si>
   <si>
     <t>tansig,tansig, tansig,tansig tansig, purelin</t>
+  </si>
+  <si>
+    <t>72.5000</t>
+  </si>
+  <si>
+    <t>77.1148</t>
+  </si>
+  <si>
+    <t>77.4262</t>
+  </si>
+  <si>
+    <t>72.9891</t>
+  </si>
+  <si>
+    <t>78.5164</t>
+  </si>
+  <si>
+    <t>73.0435</t>
+  </si>
+  <si>
+    <t>10,10,10,10,10</t>
+  </si>
+  <si>
+    <t>77.80833</t>
+  </si>
+  <si>
+    <t>74.1848</t>
+  </si>
+  <si>
+    <t>tansig,tansig, tansig,tansig,tansig,tansig,purelin</t>
+  </si>
+  <si>
+    <t>76.5246</t>
+  </si>
+  <si>
+    <t>71.7391</t>
+  </si>
+  <si>
+    <t>70.2623</t>
+  </si>
+  <si>
+    <t>68.9130</t>
+  </si>
+  <si>
+    <t>75.7131</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  72.3370</t>
+  </si>
+  <si>
+    <t>trainbr</t>
+  </si>
+  <si>
+    <t>79.4426</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 73.0978</t>
+  </si>
+  <si>
+    <t>traingdx</t>
+  </si>
+  <si>
+    <t>75.6721</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   73.7500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   76.9672</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   73.9130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   40.1639</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   39.8913</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   41.1413</t>
+  </si>
+  <si>
+    <t>hardlim, compet</t>
+  </si>
+  <si>
+    <t>tansig, softmax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   40.5978</t>
+  </si>
+  <si>
+    <t>softmax, purelin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   77.8607</t>
+  </si>
+  <si>
+    <t>tribas,purelin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   76.1557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   72.8804</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   74.6148</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   71.7488</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   76.8852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   71.2903</t>
+  </si>
+  <si>
+    <t>dividerand = {0.8, 0.1, 0.1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   77.4508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   73.7705</t>
+  </si>
+  <si>
+    <t>dividerand = {0.5, 0.25, 0.25}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   76.1803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   72.4837</t>
+  </si>
+  <si>
+    <t>dividerand = {0.6, 0.2, 0.2}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   77.2459</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   72.7049</t>
+  </si>
+  <si>
+    <t>dividerand = {0.85, 0.1, 0.05}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   77.5328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   76.7742</t>
   </si>
 </sst>
 </file>
@@ -773,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -835,8 +988,12 @@
         <v>11</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="5"/>
+      <c r="H3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -873,8 +1030,12 @@
         <v>11</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="5"/>
+      <c r="H7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
@@ -896,8 +1057,12 @@
         <v>11</v>
       </c>
       <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="5"/>
+      <c r="H8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:9" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
@@ -907,7 +1072,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>32</v>
@@ -919,16 +1084,26 @@
         <v>11</v>
       </c>
       <c r="G9" s="3"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="5"/>
+      <c r="H9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="6">
+        <v>6</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="E10" s="3" t="s">
         <v>29</v>
       </c>
@@ -936,8 +1111,12 @@
         <v>11</v>
       </c>
       <c r="G10" s="3"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="5"/>
+      <c r="H10" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="12" spans="1:9" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -973,8 +1152,12 @@
         <v>11</v>
       </c>
       <c r="G13" s="3"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="5"/>
+      <c r="H13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
@@ -996,38 +1179,66 @@
         <v>11</v>
       </c>
       <c r="G14" s="3"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="5"/>
+      <c r="H14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="F15" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G15" s="3"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="5"/>
+      <c r="H15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>10</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="F16" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="3"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="5"/>
+      <c r="H16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="1:9" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1063,8 +1274,12 @@
         <v>11</v>
       </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="5"/>
+      <c r="H20" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
@@ -1086,68 +1301,120 @@
         <v>11</v>
       </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="5"/>
+      <c r="H21" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3">
+        <v>10</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="F22" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="5"/>
+      <c r="H22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3">
+        <v>10</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="F23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="3"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="5"/>
+      <c r="H23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>10</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="F24" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="3"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="5"/>
+      <c r="H24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3">
+        <v>10</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="F25" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G25" s="3"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="5"/>
+      <c r="H25" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="1:9" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1183,8 +1450,12 @@
         <v>27</v>
       </c>
       <c r="G28" s="3"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="5"/>
+      <c r="H28" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
@@ -1206,60 +1477,120 @@
         <v>28</v>
       </c>
       <c r="G29" s="3"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="5"/>
+      <c r="H29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="B30" s="3">
+        <v>1</v>
+      </c>
+      <c r="C30" s="3">
+        <v>10</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="G30" s="3"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="5"/>
+      <c r="H30" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="B31" s="3">
+        <v>1</v>
+      </c>
+      <c r="C31" s="3">
+        <v>10</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>75</v>
+      </c>
       <c r="G31" s="3"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="5"/>
+      <c r="H31" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="32" spans="1:9" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3">
+        <v>10</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>78</v>
+      </c>
       <c r="G32" s="3"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="5"/>
+      <c r="H32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="33" spans="1:9" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="B33" s="3">
+        <v>1</v>
+      </c>
+      <c r="C33" s="3">
+        <v>10</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>81</v>
+      </c>
       <c r="G33" s="3"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="5"/>
+      <c r="H33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1269,6 +1600,6 @@
     <mergeCell ref="A27:I27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/estudoNN.xlsx
+++ b/estudoNN.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\João Mota\Desktop\TP_CR_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E84537-5A62-4EEE-B337-9C2462A9BB6E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FFF90B-C666-4CA5-A1F8-7DB0CC22BE80}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Train" sheetId="1" r:id="rId1"/>
+    <sheet name="Start" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="101">
   <si>
     <t>Função de treino</t>
   </si>
@@ -280,13 +281,64 @@
   </si>
   <si>
     <t xml:space="preserve">   76.7742</t>
+  </si>
+  <si>
+    <t>Ficheiro START</t>
+  </si>
+  <si>
+    <t>Precisão Total</t>
+  </si>
+  <si>
+    <t>Erro</t>
+  </si>
+  <si>
+    <t>Tempo de Execução</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    8.2874</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.6330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.2759</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.2300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.8912</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    3.3724</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.6394</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.7829</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.5260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.7401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.7768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.7437</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -338,6 +390,14 @@
       <b/>
       <sz val="18"/>
       <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -478,7 +538,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -513,6 +573,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="73">
     <cellStyle name="Hiperligação" xfId="1" builtinId="8" hidden="1"/>
@@ -926,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1602,4 +1663,426 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE945FF-7867-4D5B-A7B5-9686FCE808D8}">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="34.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:11" ht="46.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7">
+        <v>10</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="4">
+        <v>100</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.05" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:11" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4">
+        <v>100</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="3"/>
+      <c r="H8" s="4">
+        <v>100</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="3"/>
+      <c r="H9" s="4">
+        <v>77</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>10</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="4">
+        <v>100</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="12" spans="1:11" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:11" ht="55.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>10</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="3"/>
+      <c r="H14" s="4">
+        <v>100</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="3"/>
+      <c r="H15" s="4">
+        <v>50</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>10</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="4">
+        <v>50</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>10</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="4">
+        <v>50</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>10</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="4">
+        <v>100</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>10</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="4">
+        <v>100</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I20" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="A13:I13"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>